--- a/bots/crawl_ch/output/toilet_coop_2022-09-04.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-09-04.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -677,7 +677,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -750,7 +750,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -823,135 +823,135 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6873015</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>12Rol</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr"/>
+          <t>192BLT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hakle</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>0.91/1Rol</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>6873015</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/hakle-toilettenpapier-sagenhafte-sauberkeit-3-lagig-12-rollen/p/6873015</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>192BLT</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
+          <t>12Rol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Hakle</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.91/1Rol</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Rolle</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1Rol</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Hakle Toilettenpapier Sagenhafte Sauberkeit 3-lagig 12 Rollen 10.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1063,7 +1063,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1209,7 +1209,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1282,7 +1282,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1339,7 +1339,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1615,7 +1615,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1834,7 +1834,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -1980,135 +1980,135 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6996030</t>
+          <t>6289143</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
+          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher-box/oecoplan-papiertaschentuecher-special-edition-calendula-box-3x80-stueck/p/6289143</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>200BLT</t>
-        </is>
-      </c>
-      <c r="E24" t="n">
-        <v>1</v>
-      </c>
+          <t>240ST</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
       <c r="F24" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>0.02/1ST</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher-box']</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
+          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück 20% Aktion 5.50 Schweizer Franken statt 6.90 Schweizer Franken</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6289143</t>
+          <t>6996030</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher-box/oecoplan-papiertaschentuecher-special-edition-calendula-box-3x80-stueck/p/6289143</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/tela-viva-haushaltspapier-3-lagig-4-rollen/p/6996030</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>240ST</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>200BLT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>0.02/1ST</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher-box']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special Edition Calendula Box 3x80 Stück 20% Aktion 5.50 Schweizer Franken statt 6.90 Schweizer Franken</t>
+          <t>Tela Viva Haushaltspapier 3-lagig 4 Rollen 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2252,151 +2252,151 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3874909</t>
+          <t>6996029</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
+          <t>Tela Lux 4-lagig 6 Rollen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>30ST</t>
-        </is>
-      </c>
-      <c r="E28" t="n">
-        <v>1</v>
-      </c>
+          <t>6Rol</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tela</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>3.65</t>
+          <t>5.60</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>0.12/1ST</t>
+          <t>0.93/1Rol</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0.12</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
+          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6996029</t>
+          <t>3874909</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tela-lux-4-lagig-6-rollen/p/6996029</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/oecoplan-papiertaschentuecher-special-edition-calendula-30x10-stueck/p/3874909</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>6Rol</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr"/>
+          <t>30ST</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tela</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>5.60</t>
+          <t>3.65</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>0.93/1Rol</t>
+          <t>0.12/1ST</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Tela Lux 4-lagig 6 Rollen 5.60 Schweizer Franken</t>
+          <t>Oecoplan Papiertaschentücher Special-Edition Calendula 30x10 Stück 20% Aktion 3.65 Schweizer Franken statt 4.60 Schweizer Franken</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
@@ -2542,7 +2542,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-09-04 07:01:43</t>
+          <t>2022-09-04 20:57:24</t>
         </is>
       </c>
     </row>
